--- a/name.xlsx
+++ b/name.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>Ginger Sushi OD</t>
@@ -50,78 +50,6 @@
   </si>
   <si>
     <t>Art house bar</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>Дружба</t>
-  </si>
-  <si>
-    <t>Хычинная</t>
-  </si>
-  <si>
-    <t>Rouge</t>
-  </si>
-  <si>
-    <t>Zakazbuketov</t>
-  </si>
-  <si>
-    <t>Rafale</t>
-  </si>
-  <si>
-    <t>Империя цветов</t>
-  </si>
-  <si>
-    <t>ЧайLa kitchen</t>
-  </si>
-  <si>
-    <t>Цыпа</t>
-  </si>
-  <si>
-    <t>Счастье Цветочный Магазин</t>
-  </si>
-  <si>
-    <t>Mixy</t>
-  </si>
-  <si>
-    <t>Zmood</t>
-  </si>
-  <si>
-    <t>florigi.com</t>
-  </si>
-  <si>
-    <t>Fornarina by Gradik</t>
-  </si>
-  <si>
-    <t>La Tartine Forum</t>
-  </si>
-  <si>
-    <t>Оранж Толе-би</t>
-  </si>
-  <si>
-    <t>Le Dome</t>
-  </si>
-  <si>
-    <t>Chilla republic</t>
-  </si>
-  <si>
-    <t>Montebianco</t>
-  </si>
-  <si>
-    <t>Gyro</t>
-  </si>
-  <si>
-    <t>Mado</t>
-  </si>
-  <si>
-    <t>Steak &amp; Burger</t>
-  </si>
-  <si>
-    <t>Family Art Coffee Bar</t>
-  </si>
-  <si>
-    <t>ALFA</t>
   </si>
 </sst>
 </file>
@@ -479,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,198 +506,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/name.xlsx
+++ b/name.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Sushiwok</t>
   </si>
   <si>
+    <t>Мастер пицца на Розыбакиева</t>
+  </si>
+  <si>
     <t>VIP Uzbechka</t>
   </si>
   <si>
@@ -50,6 +53,78 @@
   </si>
   <si>
     <t>Art house bar</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Дружба</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Zakazbuketov</t>
+  </si>
+  <si>
+    <t>Rafale</t>
+  </si>
+  <si>
+    <t>Империя цветов</t>
+  </si>
+  <si>
+    <t>ЧайLa kitchen</t>
+  </si>
+  <si>
+    <t>Цыпа</t>
+  </si>
+  <si>
+    <t>Счастье Цветочный Магазин</t>
+  </si>
+  <si>
+    <t>Mixy</t>
+  </si>
+  <si>
+    <t>Zmood</t>
+  </si>
+  <si>
+    <t>florigi.com</t>
+  </si>
+  <si>
+    <t>Fornarina by Gradik</t>
+  </si>
+  <si>
+    <t>La Tartine Forum</t>
+  </si>
+  <si>
+    <t>Оранж Толе-би</t>
+  </si>
+  <si>
+    <t>Le Dome</t>
+  </si>
+  <si>
+    <t>Chilla republic</t>
+  </si>
+  <si>
+    <t>Montebianco</t>
+  </si>
+  <si>
+    <t>Gyro</t>
+  </si>
+  <si>
+    <t>Mado</t>
+  </si>
+  <si>
+    <t>Steak &amp; Burger</t>
+  </si>
+  <si>
+    <t>Family Art Coffee Bar</t>
+  </si>
+  <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>EAST</t>
   </si>
 </sst>
 </file>
@@ -407,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,6 +581,206 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/name.xlsx
+++ b/name.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -53,78 +53,6 @@
   </si>
   <si>
     <t>Art house bar</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>Дружба</t>
-  </si>
-  <si>
-    <t>Rouge</t>
-  </si>
-  <si>
-    <t>Zakazbuketov</t>
-  </si>
-  <si>
-    <t>Rafale</t>
-  </si>
-  <si>
-    <t>Империя цветов</t>
-  </si>
-  <si>
-    <t>ЧайLa kitchen</t>
-  </si>
-  <si>
-    <t>Цыпа</t>
-  </si>
-  <si>
-    <t>Счастье Цветочный Магазин</t>
-  </si>
-  <si>
-    <t>Mixy</t>
-  </si>
-  <si>
-    <t>Zmood</t>
-  </si>
-  <si>
-    <t>florigi.com</t>
-  </si>
-  <si>
-    <t>Fornarina by Gradik</t>
-  </si>
-  <si>
-    <t>La Tartine Forum</t>
-  </si>
-  <si>
-    <t>Оранж Толе-би</t>
-  </si>
-  <si>
-    <t>Le Dome</t>
-  </si>
-  <si>
-    <t>Chilla republic</t>
-  </si>
-  <si>
-    <t>Montebianco</t>
-  </si>
-  <si>
-    <t>Gyro</t>
-  </si>
-  <si>
-    <t>Mado</t>
-  </si>
-  <si>
-    <t>Steak &amp; Burger</t>
-  </si>
-  <si>
-    <t>Family Art Coffee Bar</t>
-  </si>
-  <si>
-    <t>ALFA</t>
-  </si>
-  <si>
-    <t>EAST</t>
   </si>
 </sst>
 </file>
@@ -482,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,198 +517,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
